--- a/dist/data/profiles/xlsx/bluff/profile 21-23 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 21-23 graph.xlsx
@@ -5553,11 +5553,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="41942307"/>
-        <c:axId val="90341790"/>
+        <c:axId val="62651192"/>
+        <c:axId val="41671820"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41942307"/>
+        <c:axId val="62651192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5592,12 +5592,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90341790"/>
+        <c:crossAx val="41671820"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90341790"/>
+        <c:axId val="41671820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5641,7 +5641,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41942307"/>
+        <c:crossAx val="62651192"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
